--- a/ece.xlsx
+++ b/ece.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveli/Developer/Python/ECE143_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFD28B2-0E6C-FD48-B404-95C21192D144}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98D376E-C093-7B4E-8DE3-72492474EDFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="37900" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,47 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$A$1:$S$442</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">result!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">result!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">result!$A$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">result!$A$6</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">result!$A$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">result!$A$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">result!$A$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">result!$B$10:$N$10</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">result!$B$11:$N$11</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">result!$B$12:$N$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">result!$B$13:$N$13</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">result!$B$14:$N$14</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">result!$A$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">result!$B$15:$N$15</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">result!$B$16:$N$16</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">result!$B$17:$N$17</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">result!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">result!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">result!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">result!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">result!$B$6:$N$6</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">result!$B$7:$N$7</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">result!$B$8:$N$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">result!$A$13</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">result!$B$9:$N$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">result!$A$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">result!$A$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">result!$A$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">result!$A$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">result!$A$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">result!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1498,15 +1537,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4478,16 +4509,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>232833</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1820333</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>283634</xdr:colOff>
-      <xdr:row>480</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>436034</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4840,7 +4871,7 @@
   <dimension ref="A1:S442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G465" sqref="G465"/>
+      <selection activeCell="F451" sqref="F451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -30932,7 +30963,7 @@
       <colorFilter dxfId="0"/>
     </filterColumn>
     <sortState ref="A2:S442">
-      <sortCondition sortBy="cellColor" ref="A1:A442" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="A1:A442" dxfId="1"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:S443">
